--- a/Data/About Herbs/h_scientific_name.xlsx
+++ b/Data/About Herbs/h_scientific_name.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yingxuan/Documents/SUTD/UROP OncoRx/Data/About Herbs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC36F465-70E9-5744-AC54-FE4E49D58B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="311">
   <si>
     <t xml:space="preserve">
 (2S)-2-amino-3-(5-hydroxy-1H-indol-3-yl) propanoic acid; H-Trp(5-OH)-OH
@@ -1326,13 +1332,34 @@
   <si>
     <t xml:space="preserve">and Androctonus crassicauda
 </t>
+  </si>
+  <si>
+    <t>h_scientific_name1</t>
+  </si>
+  <si>
+    <t>h_scientific_name2</t>
+  </si>
+  <si>
+    <t>h_scientific_name3</t>
+  </si>
+  <si>
+    <t>h_scientific_name4</t>
+  </si>
+  <si>
+    <t>h_scientific_name5</t>
+  </si>
+  <si>
+    <t>h_scientific_name6</t>
+  </si>
+  <si>
+    <t>h_scientific_name7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,13 +1375,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1384,17 +1423,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1441,7 +1495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,9 +1527,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1507,6 +1579,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1682,65 +1772,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H276"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
+    <col min="3" max="4" width="17.1640625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="19.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:8" ht="32">
+      <c r="B1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="128">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="112">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="96">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="96">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1749,57 +1847,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="96">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="64">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="112">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="96">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="112">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="96">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1808,11 +1906,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="112">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1821,35 +1919,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="96">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="96">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="96">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="96">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1868,31 +1966,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="128">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="96">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -1901,70 +1999,70 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="128">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="96">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="96">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="96">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="96">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="80">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="96">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="96">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1978,22 +2076,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="112">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="80">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2002,47 +2100,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="64">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="64">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="96">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="96">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2056,27 +2154,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="96">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="96">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="96">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2085,54 +2183,54 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="96">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="112">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="128">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="96">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="96">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" ht="112">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2151,76 +2249,76 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="96">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="96">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="64">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="96">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" ht="96">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="96">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="112">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="96">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2229,54 +2327,54 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="96">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="96">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="112">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2285,131 +2383,131 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="96">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="144">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="96">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="112">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" ht="80">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="80">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="96">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="96">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="96">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="80">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="80">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="96">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="112">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2418,19 +2516,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="96">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="96">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2439,33 +2537,33 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="96">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="64">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="96">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2474,39 +2572,39 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="80">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="80">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="96">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2515,51 +2613,51 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="96">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" ht="112">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" ht="96">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" ht="96">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="96">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="96">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2568,22 +2666,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="64">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" ht="96">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2602,57 +2700,57 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" ht="64">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" ht="96">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" ht="96">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" ht="96">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="64">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="96">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2666,87 +2764,87 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="96">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" ht="80">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="80">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="96">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" ht="96">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" ht="96">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" ht="96">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="80">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" ht="112">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2755,27 +2853,27 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" ht="96">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" ht="96">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" ht="96">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2784,22 +2882,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="96">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="80">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2808,33 +2906,33 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="64">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="80">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="112">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2843,42 +2941,42 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="96">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="64">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="80">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2887,11 +2985,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="96">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2900,31 +2998,31 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="96">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="64">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="3" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2933,22 +3031,22 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="96">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="80">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2957,30 +3055,30 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" ht="112">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="80">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" ht="96">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2989,17 +3087,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" ht="64">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3008,17 +3106,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" ht="80">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3027,14 +3125,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" ht="80">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3048,27 +3146,27 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" ht="96">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" ht="96">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" ht="96">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3077,19 +3175,19 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" ht="96">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" ht="96">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3098,11 +3196,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" ht="112">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3121,49 +3219,49 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" ht="80">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" ht="80">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" ht="96">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" ht="96">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" ht="96">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3172,70 +3270,70 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" ht="96">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" ht="96">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" ht="96">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="96">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="96">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="64">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="96">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" ht="96">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3244,58 +3342,58 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="96">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="80">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="96">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="96">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" ht="80">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="3" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3309,76 +3407,76 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" ht="96">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" ht="80">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" ht="96">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" ht="128">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" ht="96">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" ht="96">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" ht="96">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" ht="80">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3392,11 +3490,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" ht="96">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3415,81 +3513,81 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" ht="64">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" ht="128">
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" ht="96">
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" ht="96">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" ht="96">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" ht="96">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" ht="96">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" ht="64">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" ht="96">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3498,113 +3596,113 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" ht="96">
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" ht="96">
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" ht="96">
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" ht="96">
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" ht="96">
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" ht="96">
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" ht="112">
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H223" t="s">
+      <c r="H223" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" ht="96">
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" ht="96">
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="80">
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3623,11 +3721,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" ht="96">
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3636,11 +3734,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="96">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3649,63 +3747,63 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" ht="96">
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" ht="96">
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" ht="96">
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="96">
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="96">
       <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" ht="64">
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="3" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3714,27 +3812,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" ht="96">
       <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" ht="96">
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" ht="96">
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3748,38 +3846,38 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" ht="64">
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" ht="96">
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" ht="112">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" ht="96">
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3788,19 +3886,19 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" ht="96">
       <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" ht="96">
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3809,14 +3907,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" ht="80">
       <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3825,28 +3923,28 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" ht="144">
       <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" ht="64">
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="3" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3855,14 +3953,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" ht="96">
       <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3871,55 +3969,55 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" ht="96">
       <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" ht="96">
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" ht="64">
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" ht="64">
       <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" ht="96">
       <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3933,44 +4031,44 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" ht="96">
       <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" ht="64">
       <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" ht="64">
       <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" ht="80">
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3979,11 +4077,11 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" ht="112">
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4003,6 +4101,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>